--- a/实验结果/帧内预测优化结果.xlsx
+++ b/实验结果/帧内预测优化结果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donnie\Desktop\论文材料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donnie\Desktop\论文材料\实验结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBCFED2-D241-47A4-A92E-D3B7C36121F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525F87D8-7C0A-44B3-A8FE-E6843E209D4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="2" xr2:uid="{102DE276-FBF2-4E84-B0D4-026FADA0F190}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="PIA优化" sheetId="3" r:id="rId2"/>
     <sheet name="模块整体优化" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Traffic_2560x1600_30</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,26 @@
     <t>串行帧内预测模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>串行调用预测值计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串行调用哈达玛失真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行调用哈达玛失真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行调用预测值计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +182,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,7 +947,7 @@
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.18953960241637727</c:v>
+                  <c:v>0.1963832126473822</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.73923584609168047</c:v>
@@ -933,7 +956,7 @@
                   <c:v>1.3012276656547401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4429076989744329</c:v>
+                  <c:v>1.4842867756315008</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.4913762535572386</c:v>
@@ -1237,14 +1260,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>串行帧内预测模块</c:v>
+                  <c:v>串行调用哈达玛失真</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1282,25 +1308,25 @@
             <c:numRef>
               <c:f>模块整体优化!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.75217</c:v>
+                  <c:v>0.23637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1285699999999999</c:v>
+                  <c:v>1.01251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.964549999999999</c:v>
+                  <c:v>1.7213499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.939080000000001</c:v>
+                  <c:v>2.0268600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.38926</c:v>
+                  <c:v>4.5199199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.977899999999998</c:v>
+                  <c:v>9.0407399999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,14 +1346,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>并行帧内预测模块</c:v>
+                  <c:v>并行调用哈达玛失真</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1365,25 +1393,25 @@
             <c:numRef>
               <c:f>模块整体优化!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.4454462959907606</c:v>
+                  <c:v>2.369220283259996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7326658624849216</c:v>
+                  <c:v>0.11546865555897681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.762198107049608</c:v>
+                  <c:v>0.19137806437267219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.436724647193961</c:v>
+                  <c:v>0.21488502274100699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.088148271276594</c:v>
+                  <c:v>0.52080611151439737</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.747482191107835</c:v>
+                  <c:v>0.96852964807970421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,6 +1419,348 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5725-4B46-9CA1-876DFFA384AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>模块整体优化!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>串行调用预测值计算</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>模块整体优化!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>模块整体优化!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.21756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82325000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.46163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5982799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8400599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0471199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53EB-4DA0-B876-ED4F2F1D967F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>模块整体优化!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并行调用预测值计算</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>模块整体优化!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>模块整体优化!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.12968979781606865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34060656727224231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82871254481078349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95329460567560065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6649652677503068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0833581701795385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53EB-4DA0-B876-ED4F2F1D967F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>模块整体优化!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>串行帧内预测模块</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>模块整体优化!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>模块整体优化!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.75217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1285699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.964549999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.939080000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.38926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.977899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53EB-4DA0-B876-ED4F2F1D967F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>模块整体优化!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并行帧内预测模块</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>模块整体优化!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>模块整体优化!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4454462959907606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7326658624849216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.762198107049608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.436724647193961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.088148271276594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.747482191107835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-53EB-4DA0-B876-ED4F2F1D967F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1478,7 +1848,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000_);[Red]\(0.000\)" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3321,16 +3691,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1004314</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>153788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1016079</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12594</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3660,7 +4030,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3677,7 +4047,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -3697,7 +4067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3719,7 +4089,7 @@
         <v>1.1530243902439024</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3741,7 +4111,7 @@
         <v>1.1571542857142858</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3763,7 +4133,7 @@
         <v>1.1592340000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -3785,7 +4155,7 @@
         <v>1.1601987</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -3807,7 +4177,7 @@
         <v>1.1605646999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -3829,7 +4199,7 @@
         <v>1.157867</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" s="2">
         <f>AVERAGE(E2:E7)</f>
         <v>1.2655323319908784</v>
@@ -3849,10 +4219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCABEC58-803E-4961-862D-4F424DCCC1C0}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3885,11 +4255,11 @@
         <v>0.21756</v>
       </c>
       <c r="C2" s="3">
-        <f>B2/D2</f>
-        <v>0.18953960241637727</v>
+        <f t="shared" ref="C2:C7" si="0">B2/D2</f>
+        <v>0.1963832126473822</v>
       </c>
       <c r="D2" s="5">
-        <v>1.147834</v>
+        <v>1.107834</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3900,7 +4270,7 @@
         <v>0.82325000000000004</v>
       </c>
       <c r="C3" s="3">
-        <f>B3/D3</f>
+        <f t="shared" si="0"/>
         <v>0.73923584609168047</v>
       </c>
       <c r="D3" s="5">
@@ -3915,7 +4285,7 @@
         <v>1.46163</v>
       </c>
       <c r="C4" s="3">
-        <f>B4/D4</f>
+        <f t="shared" si="0"/>
         <v>1.3012276656547401</v>
       </c>
       <c r="D4" s="5">
@@ -3930,11 +4300,11 @@
         <v>1.5982799999999999</v>
       </c>
       <c r="C5" s="3">
-        <f>B5/D5</f>
-        <v>1.4429076989744329</v>
+        <f t="shared" si="0"/>
+        <v>1.4842867756315008</v>
       </c>
       <c r="D5" s="5">
-        <v>1.10768</v>
+        <v>1.0768</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3945,7 +4315,7 @@
         <v>3.8400599999999998</v>
       </c>
       <c r="C6" s="3">
-        <f>B6/D6</f>
+        <f t="shared" si="0"/>
         <v>3.4913762535572386</v>
       </c>
       <c r="D6" s="5">
@@ -3960,141 +4330,311 @@
         <v>7.0471199999999996</v>
       </c>
       <c r="C7" s="3">
-        <f>B7/D7</f>
+        <f t="shared" si="0"/>
         <v>6.2051440093687527</v>
       </c>
       <c r="D7" s="5">
         <v>1.1356900000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="5">
+        <f>AVERAGE(D2:D7)</f>
+        <v>1.1095190000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ABCAAC-3494-47E8-B363-5D438F36684E}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
+        <v>0.23637</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.369220283259996E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.21756</v>
+      </c>
+      <c r="E2" s="4">
+        <f>(D2-(F2-G2)+(B2-C2))*1.05</f>
+        <v>0.12968979781606865</v>
+      </c>
+      <c r="F2" s="4">
         <v>1.75217</v>
       </c>
-      <c r="C2" s="1">
-        <f>B2/D2</f>
+      <c r="G2" s="4">
         <v>1.4454462959907606</v>
       </c>
-      <c r="D2">
+      <c r="H2" s="1">
+        <v>9.9766999999999992</v>
+      </c>
+      <c r="I2" s="1">
+        <f>D2/E2</f>
+        <v>1.6775413614920771</v>
+      </c>
+      <c r="J2" s="1">
         <v>1.2121999999999999</v>
       </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
+        <v>1.01251</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.11546865555897681</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.82325000000000004</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E7" si="0">(D3-(F3-G3)+(B3-C3))*1.05</f>
+        <v>0.34060656727224231</v>
+      </c>
+      <c r="F3" s="4">
         <v>7.1285699999999999</v>
       </c>
-      <c r="C3" s="1">
-        <f>B3/D3</f>
+      <c r="G3" s="4">
         <v>5.7326658624849216</v>
       </c>
-      <c r="D3">
+      <c r="H3" s="1">
+        <v>8.7687000000000008</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I7" si="1">D3/E3</f>
+        <v>2.4170115291464338</v>
+      </c>
+      <c r="J3" s="1">
         <v>1.2435</v>
       </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
+        <v>1.7213499999999999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.19137806437267219</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.46163</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82871254481078349</v>
+      </c>
+      <c r="F4" s="4">
         <v>11.964549999999999</v>
       </c>
-      <c r="C4" s="1">
-        <f>B4/D4</f>
+      <c r="G4" s="4">
         <v>9.762198107049608</v>
       </c>
-      <c r="D4">
+      <c r="H4" s="1">
+        <v>8.9945000000000004</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.763735820282204</v>
+      </c>
+      <c r="J4" s="1">
         <v>1.2256</v>
       </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
+        <v>2.0268600000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.21488502274100699</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.5982799999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.95329460567560065</v>
+      </c>
+      <c r="F5" s="4">
         <v>13.939080000000001</v>
       </c>
-      <c r="C5" s="1">
-        <f>B5/D5</f>
+      <c r="G5" s="4">
         <v>11.436724647193961</v>
       </c>
-      <c r="D5">
+      <c r="H5" s="1">
+        <v>9.4322999999999997</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6765855911534269</v>
+      </c>
+      <c r="J5" s="1">
         <v>1.2188000000000001</v>
       </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
+        <v>4.5199199999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.52080611151439737</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.8400599999999998</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6649652677503068</v>
+      </c>
+      <c r="F6" s="4">
         <v>31.38926</v>
       </c>
-      <c r="C6" s="1">
-        <f>B6/D6</f>
+      <c r="G6" s="4">
         <v>26.088148271276594</v>
       </c>
-      <c r="D6">
+      <c r="H6" s="1">
+        <v>8.6786999999999992</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4409418563423444</v>
+      </c>
+      <c r="J6" s="1">
         <v>1.2032</v>
       </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
+        <v>9.0407399999999996</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.96852964807970421</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7.0471199999999996</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0833581701795385</v>
+      </c>
+      <c r="F7" s="4">
         <v>61.977899999999998</v>
       </c>
-      <c r="C7" s="1">
-        <f>B7/D7</f>
+      <c r="G7" s="4">
         <v>50.747482191107835</v>
       </c>
-      <c r="D7">
+      <c r="H7" s="1">
+        <v>9.3345000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7258148088660441</v>
+      </c>
+      <c r="J7" s="1">
         <v>1.2213000000000001</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f>AVERAGE(H2:H7)</f>
+        <v>9.1975666666666651</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:J8" si="2">AVERAGE(I2:I7)</f>
+        <v>1.7836051612137549</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1.2207666666666668</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>